--- a/biology/Zoologie/Buccochromis_rhoadesii/Buccochromis_rhoadesii.xlsx
+++ b/biology/Zoologie/Buccochromis_rhoadesii/Buccochromis_rhoadesii.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Buccochromis rhoadesii est une espèce de poissons d'eau douce de la famille des Cichlidae.
 </t>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèces est présente dans le lac Malawi (Malawi, Mozambique et Tanzanie) et le lac Malombe (Malawi)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèces est présente dans le lac Malawi (Malawi, Mozambique et Tanzanie) et le lac Malombe (Malawi).
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Le nom valide complet (avec auteur) de ce taxon est Buccochromis rhoadesii (Boulenger, 1908)[2].
-Cette espèce a été initialement décrite sous le taxon Paratilapia rhoadesii[2],[3].
-Buccochromis rhoadesii a pour synonymes[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Le nom valide complet (avec auteur) de ce taxon est Buccochromis rhoadesii (Boulenger, 1908).
+Cette espèce a été initialement décrite sous le taxon Paratilapia rhoadesii,.
+Buccochromis rhoadesii a pour synonymes :
 Cyrtocara rhoadesii (Boulenger, 1908)
 Haplochromis rhoadesii (Boulenger, 1908)
 Paratilapia rhoadesii Boulenger, 1908</t>
@@ -577,9 +593,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son épithète spécifique, rhoadesii, lui a été donnée en l'honneur du capitaine Edmund L. Rhoades[4].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son épithète spécifique, rhoadesii, lui a été donnée en l'honneur du capitaine Edmund L. Rhoades.
 </t>
         </is>
       </c>
@@ -608,7 +626,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>(en) G. A. Boulenger, « Diagnoses of new fishes discovered by Capt. E. L. Rhoades in Lake Nyassa », Annals and Magazine of Natural History, Londres, Taylor &amp; Francis, vol. 2, no 9,‎ septembre 1908, p. 238–243 (ISSN 0374-5481, OCLC 1481361, DOI 10.1080/00222930808692478, lire en ligne)</t>
         </is>
